--- a/Roma_BR/BR04/BR04_studenti.xlsx
+++ b/Roma_BR/BR04/BR04_studenti.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -649,19 +642,25 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>45630.4637275463</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:07:46.06</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>R_25AftgqpH849FTX</t>
         </is>
       </c>
-      <c r="N2">
-        <v>45.4722</v>
-      </c>
-      <c r="O2">
-        <v>9.1922</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -811,19 +810,25 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>45630.46456971065</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:08:58.823</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>R_2EfCeQwBvesaFFN</t>
         </is>
       </c>
-      <c r="N3">
-        <v>43.1479</v>
-      </c>
-      <c r="O3">
-        <v>12.1097</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -978,19 +983,25 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>45630.46481716435</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:20.203</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>R_8QoUuai4bu5pt3D</t>
         </is>
       </c>
-      <c r="N4">
-        <v>41.8904</v>
-      </c>
-      <c r="O4">
-        <v>12.5126</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -1140,19 +1151,25 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>45630.46483708333</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:21.924</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>R_22rdQeC89UlXjO7</t>
         </is>
       </c>
-      <c r="N5">
-        <v>45.4722</v>
-      </c>
-      <c r="O5">
-        <v>9.1922</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -1302,19 +1319,25 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>45630.46488394676</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:09:25.973</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>R_8IiNMmXLLBtMNWk</t>
         </is>
       </c>
-      <c r="N6">
-        <v>43.1479</v>
-      </c>
-      <c r="O6">
-        <v>12.1097</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1455,19 +1478,25 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>45630.46551214121</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:20.249</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>R_24nLhjCw3KXle5Z</t>
         </is>
       </c>
-      <c r="N7">
-        <v>43.1479</v>
-      </c>
-      <c r="O7">
-        <v>12.1097</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1622,19 +1651,25 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>45630.46560079861</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:27.909</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>R_8f1FFsbG8EqaonL</t>
         </is>
       </c>
-      <c r="N8">
-        <v>41.8904</v>
-      </c>
-      <c r="O8">
-        <v>12.5126</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1781,19 +1816,25 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
-        <v>45630.46575671296</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:41.38</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>R_8Miin1H3MOmHYOZ</t>
         </is>
       </c>
-      <c r="N9">
-        <v>43.1479</v>
-      </c>
-      <c r="O9">
-        <v>12.1097</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1940,19 +1981,25 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
-        <v>45630.46588721065</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:52.655</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>R_8CVLfamo4ZzIHYK</t>
         </is>
       </c>
-      <c r="N10">
-        <v>41.8904</v>
-      </c>
-      <c r="O10">
-        <v>12.5126</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -2103,19 +2150,25 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
-        <v>45630.46595887731</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:10:58.847</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>R_8JJm4d6dPlInruO</t>
         </is>
       </c>
-      <c r="N11">
-        <v>45.4722</v>
-      </c>
-      <c r="O11">
-        <v>9.1922</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -2265,19 +2318,25 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
-        <v>45630.46619516204</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:11:19.262</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>R_2IXFTWgnK79fXca</t>
         </is>
       </c>
-      <c r="N12">
-        <v>45.4742</v>
-      </c>
-      <c r="O12">
-        <v>9.199400000000001</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>45.4742</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>9.1994</t>
+        </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -2409,19 +2468,25 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>45630.46660135417</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:11:54.357</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>R_2z8CRi2Ves4Nru5</t>
         </is>
       </c>
-      <c r="N13">
-        <v>41.5935</v>
-      </c>
-      <c r="O13">
-        <v>12.6607</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>41.5935</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>12.6607</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -2573,19 +2638,25 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2">
-        <v>45630.46669666667</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:12:02.592</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>R_2bth3ECngXwUhkl</t>
         </is>
       </c>
-      <c r="N14">
-        <v>45.4722</v>
-      </c>
-      <c r="O14">
-        <v>9.1922</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -2735,19 +2806,25 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
-        <v>45630.46689510417</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:12:19.737</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>R_2gTak8dS1ZxbdWb</t>
         </is>
       </c>
-      <c r="N15">
-        <v>43.1479</v>
-      </c>
-      <c r="O15">
-        <v>12.1097</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -2899,19 +2976,25 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="2">
-        <v>45630.467580625</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:18.966</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>R_8O1AvVTUoRgNzfF</t>
         </is>
       </c>
-      <c r="N16">
-        <v>45.4722</v>
-      </c>
-      <c r="O16">
-        <v>9.1922</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>45.4722</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>9.1922</t>
+        </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -3066,19 +3149,25 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
-        <v>45630.46780758102</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:38.575</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>R_2I4OgOXdXWEVVMc</t>
         </is>
       </c>
-      <c r="N17">
-        <v>43.1479</v>
-      </c>
-      <c r="O17">
-        <v>12.1097</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -3228,19 +3317,25 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="2">
-        <v>45630.46786381945</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:13:43.434</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>R_8qjUNRerXWy9clO</t>
         </is>
       </c>
-      <c r="N18">
-        <v>41.8904</v>
-      </c>
-      <c r="O18">
-        <v>12.5126</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -3395,19 +3490,25 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="2">
-        <v>45630.46809623843</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:03.515</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>R_233xBZk25j7iY2Z</t>
         </is>
       </c>
-      <c r="N19">
-        <v>43.1479</v>
-      </c>
-      <c r="O19">
-        <v>12.1097</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -3563,19 +3664,25 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="2">
-        <v>45630.46837144675</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:27.293</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>R_8m8YFgn2gNk4SJ6</t>
         </is>
       </c>
-      <c r="N20">
-        <v>43.1479</v>
-      </c>
-      <c r="O20">
-        <v>12.1097</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -3730,19 +3837,25 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
-        <v>45630.46853594908</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:41.506</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>R_8S0pCf93ttaEqjf</t>
         </is>
       </c>
-      <c r="N21">
-        <v>41.8904</v>
-      </c>
-      <c r="O21">
-        <v>12.5126</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>41.8904</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>12.5126</t>
+        </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -3897,19 +4010,25 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="2">
-        <v>45630.46867487268</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-12-04 11:14:53.509</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>R_8QnkgCkP46BZj0t</t>
         </is>
       </c>
-      <c r="N22">
-        <v>43.1479</v>
-      </c>
-      <c r="O22">
-        <v>12.1097</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>43.1479</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>12.1097</t>
+        </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -4033,6 +4152,485 @@
       <c r="AY22" t="inlineStr">
         <is>
           <t>rosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>R_cartaceo_6</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>che pure deviamo sentire alle altre persone quando idee diverse da noi</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>la sostenibilità che tutti deviamo lavorare per sostenere le cose</t>
+        </is>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>3</v>
+      </c>
+      <c r="AJ23">
+        <v>3</v>
+      </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>5</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>5</v>
+      </c>
+      <c r="AT23">
+        <v>5</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>R_cartaceo_7</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>5</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>5</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>3</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>5</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
+        <v>2</v>
+      </c>
+      <c r="AU24">
+        <v>2</v>
+      </c>
+      <c r="AV24">
+        <v>2</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-12-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1733306400</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>R_cartaceo_8</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>rispettando l'ambiente</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>sostenere l'ambiente</t>
+        </is>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <v>5</v>
+      </c>
+      <c r="AI25">
+        <v>5</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>3</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>5</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>azzurro</t>
         </is>
       </c>
     </row>
